--- a/data-raw/RW Abundance & Calves -for2022 report.xlsx
+++ b/data-raw/RW Abundance & Calves -for2022 report.xlsx
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1242,8 +1242,25 @@
       <c r="A34">
         <v>2021</v>
       </c>
+      <c r="B34">
+        <v>333</v>
+      </c>
+      <c r="C34">
+        <v>340</v>
+      </c>
+      <c r="D34">
+        <v>347</v>
+      </c>
       <c r="F34">
         <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2022</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
